--- a/teaching/traditional_assets/database/data/guernsey/guernsey_air_transport.xlsx
+++ b/teaching/traditional_assets/database/data/guernsey/guernsey_air_transport.xlsx
@@ -591,118 +591,115 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0944</v>
+        <v>0.04969999999999999</v>
       </c>
       <c r="G2">
-        <v>0.003689273689273689</v>
+        <v>-0.07250755287009064</v>
       </c>
       <c r="H2">
-        <v>0.003689273689273689</v>
+        <v>-0.07250755287009064</v>
       </c>
       <c r="I2">
-        <v>-0.241343084776703</v>
+        <v>-0.3242698892245721</v>
       </c>
       <c r="J2">
-        <v>-0.241343084776703</v>
+        <v>-0.3242698892245721</v>
       </c>
       <c r="K2">
-        <v>-75</v>
+        <v>-274.1</v>
       </c>
       <c r="L2">
-        <v>-0.3607503607503608</v>
+        <v>-1.380161127895267</v>
       </c>
       <c r="M2">
-        <v>39.5</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.07472569050321604</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>-0.5266666666666666</v>
+        <v>-0</v>
       </c>
       <c r="P2">
-        <v>39.5</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.07472569050321604</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>-0.5266666666666666</v>
+        <v>-0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
       <c r="U2">
-        <v>9.41</v>
+        <v>13.5</v>
       </c>
       <c r="V2">
-        <v>0.01780174044646235</v>
+        <v>0.06103074141048825</v>
       </c>
       <c r="W2">
-        <v>-0.1649802023757149</v>
+        <v>-0.9213445378151262</v>
       </c>
       <c r="X2">
-        <v>0.0976670446838963</v>
+        <v>0.1138194459014323</v>
       </c>
       <c r="Y2">
-        <v>-0.2626472470596112</v>
+        <v>-1.035163983716558</v>
       </c>
       <c r="Z2">
-        <v>0.3012056324271546</v>
+        <v>0.3537017578229354</v>
       </c>
       <c r="AA2">
-        <v>-0.07269389648208721</v>
+        <v>-0.1146948298277797</v>
       </c>
       <c r="AB2">
-        <v>0.07574443295531047</v>
+        <v>0.06228098451076788</v>
       </c>
       <c r="AC2">
-        <v>-0.1484383294373977</v>
+        <v>-0.1769758143385475</v>
       </c>
       <c r="AD2">
-        <v>273.4</v>
+        <v>312.5</v>
       </c>
       <c r="AE2">
-        <v>137.6261366253827</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>411.0261366253827</v>
+        <v>312.5</v>
       </c>
       <c r="AG2">
-        <v>401.6161366253827</v>
+        <v>299</v>
       </c>
       <c r="AH2">
-        <v>0.4374358275106748</v>
+        <v>0.5855349447255012</v>
       </c>
       <c r="AI2">
-        <v>0.5801142899019173</v>
+        <v>0.6938277087033748</v>
       </c>
       <c r="AJ2">
-        <v>0.4317449685213554</v>
+        <v>0.5747789311803152</v>
       </c>
       <c r="AK2">
-        <v>0.574462690224795</v>
+        <v>0.6843671320668345</v>
       </c>
       <c r="AL2">
-        <v>11.2</v>
+        <v>14.6</v>
       </c>
       <c r="AM2">
-        <v>8.539999999999999</v>
+        <v>11.59</v>
       </c>
       <c r="AN2">
-        <v>30.99773242630385</v>
+        <v>-11.12099644128114</v>
       </c>
       <c r="AO2">
-        <v>-2.696428571428572</v>
+        <v>-4.41095890410959</v>
       </c>
       <c r="AP2">
-        <v>45.53470936795722</v>
+        <v>-10.64056939501779</v>
       </c>
       <c r="AQ2">
-        <v>-3.536299765807963</v>
+        <v>-5.5565142364107</v>
       </c>
     </row>
     <row r="3">
@@ -722,118 +719,115 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0944</v>
+        <v>0.04969999999999999</v>
       </c>
       <c r="G3">
-        <v>0.003689273689273689</v>
+        <v>-0.07250755287009064</v>
       </c>
       <c r="H3">
-        <v>0.003689273689273689</v>
+        <v>-0.07250755287009064</v>
       </c>
       <c r="I3">
-        <v>-0.241343084776703</v>
+        <v>-0.3242698892245721</v>
       </c>
       <c r="J3">
-        <v>-0.241343084776703</v>
+        <v>-0.3242698892245721</v>
       </c>
       <c r="K3">
-        <v>-75</v>
+        <v>-274.1</v>
       </c>
       <c r="L3">
-        <v>-0.3607503607503608</v>
+        <v>-1.380161127895267</v>
       </c>
       <c r="M3">
-        <v>39.5</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>0.07472569050321604</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>-0.5266666666666666</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>39.5</v>
+        <v>-0</v>
       </c>
       <c r="Q3">
-        <v>0.07472569050321604</v>
+        <v>-0</v>
       </c>
       <c r="R3">
-        <v>-0.5266666666666666</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
       <c r="U3">
-        <v>9.41</v>
+        <v>13.5</v>
       </c>
       <c r="V3">
-        <v>0.01780174044646235</v>
+        <v>0.06103074141048825</v>
       </c>
       <c r="W3">
-        <v>-0.1649802023757149</v>
+        <v>-0.9213445378151262</v>
       </c>
       <c r="X3">
-        <v>0.0976670446838963</v>
+        <v>0.1138194459014323</v>
       </c>
       <c r="Y3">
-        <v>-0.2626472470596112</v>
+        <v>-1.035163983716558</v>
       </c>
       <c r="Z3">
-        <v>0.3012056324271546</v>
+        <v>0.3537017578229354</v>
       </c>
       <c r="AA3">
-        <v>-0.07269389648208721</v>
+        <v>-0.1146948298277797</v>
       </c>
       <c r="AB3">
-        <v>0.07574443295531047</v>
+        <v>0.06228098451076788</v>
       </c>
       <c r="AC3">
-        <v>-0.1484383294373977</v>
+        <v>-0.1769758143385475</v>
       </c>
       <c r="AD3">
-        <v>273.4</v>
+        <v>312.5</v>
       </c>
       <c r="AE3">
-        <v>137.6261366253827</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>411.0261366253827</v>
+        <v>312.5</v>
       </c>
       <c r="AG3">
-        <v>401.6161366253827</v>
+        <v>299</v>
       </c>
       <c r="AH3">
-        <v>0.4374358275106748</v>
+        <v>0.5855349447255012</v>
       </c>
       <c r="AI3">
-        <v>0.5801142899019173</v>
+        <v>0.6938277087033748</v>
       </c>
       <c r="AJ3">
-        <v>0.4317449685213554</v>
+        <v>0.5747789311803152</v>
       </c>
       <c r="AK3">
-        <v>0.574462690224795</v>
+        <v>0.6843671320668345</v>
       </c>
       <c r="AL3">
-        <v>11.2</v>
+        <v>14.6</v>
       </c>
       <c r="AM3">
-        <v>8.539999999999999</v>
+        <v>11.59</v>
       </c>
       <c r="AN3">
-        <v>30.99773242630385</v>
+        <v>-11.12099644128114</v>
       </c>
       <c r="AO3">
-        <v>-2.696428571428572</v>
+        <v>-4.41095890410959</v>
       </c>
       <c r="AP3">
-        <v>45.53470936795722</v>
+        <v>-10.64056939501779</v>
       </c>
       <c r="AQ3">
-        <v>-3.536299765807963</v>
+        <v>-5.5565142364107</v>
       </c>
     </row>
   </sheetData>
